--- a/kadai10_table.xlsx
+++ b/kadai10_table.xlsx
@@ -8,12 +8,13 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WorkSpace\data_science_kiso\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{D965A239-909F-43DC-BA74-71856405539D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5F81E8AA-9A8A-4A9B-B9B5-9EF13DA171C8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{4A428D28-0678-4BDB-810E-8344914DA0B2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -402,4 +403,17 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1246E950-84C1-40F9-92CD-414D2357EBC7}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="18" x14ac:dyDescent="0.45"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>